--- a/Data/EC/NIT-9006885592.xlsx
+++ b/Data/EC/NIT-9006885592.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F9544A-EB72-472C-9E36-EA4C44B40147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{697E9271-19AC-4855-9D4F-B37043E1A3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CD781091-A5D6-476C-BB70-30BB4E753A88}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EEB3AC61-9794-4702-9B87-ED5E8AFDD401}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,88 +65,88 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73095460</t>
+  </si>
+  <si>
+    <t>ELVIS CANTILLO CASTILLA</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>45481799</t>
+  </si>
+  <si>
+    <t>LUZ ESTELA MARTINEZ LONDOÑO</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
     <t>23218869</t>
   </si>
   <si>
     <t>LEDYS DEL SOCORRO ROMERO PATERNINA</t>
   </si>
   <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>45481799</t>
-  </si>
-  <si>
-    <t>LUZ ESTELA MARTINEZ LONDOÑO</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>73095460</t>
-  </si>
-  <si>
-    <t>ELVIS CANTILLO CASTILLA</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -245,7 +245,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -258,9 +260,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -460,23 +460,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,10 +504,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +560,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB2687E-E519-86CA-E141-BA5B4F92E68E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB99C83F-409C-4C17-9252-460225B0DDD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D48C84-C1F8-47AD-B94E-0233BC84E553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894905DE-506E-4C37-90E3-C77A7AB61AD4}">
   <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1089,10 +1089,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>110205</v>
+        <v>64682</v>
       </c>
       <c r="G16" s="18">
-        <v>4591871</v>
+        <v>3828128</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1112,10 +1112,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>183674</v>
+        <v>129365</v>
       </c>
       <c r="G17" s="18">
-        <v>4591871</v>
+        <v>3828128</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1135,10 +1135,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>183674</v>
+        <v>129365</v>
       </c>
       <c r="G18" s="18">
-        <v>4591871</v>
+        <v>3828128</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1158,10 +1158,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>183674</v>
+        <v>129365</v>
       </c>
       <c r="G19" s="18">
-        <v>4591871</v>
+        <v>3828128</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1181,10 +1181,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>183674</v>
+        <v>129365</v>
       </c>
       <c r="G20" s="18">
-        <v>4591871</v>
+        <v>3828128</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1204,10 +1204,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>183674</v>
+        <v>129365</v>
       </c>
       <c r="G21" s="18">
-        <v>4591871</v>
+        <v>3828128</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1227,10 +1227,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>183674</v>
+        <v>129365</v>
       </c>
       <c r="G22" s="18">
-        <v>4591871</v>
+        <v>3828128</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1241,19 +1241,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F23" s="18">
-        <v>240000</v>
+        <v>129365</v>
       </c>
       <c r="G23" s="18">
-        <v>7540320</v>
+        <v>3828128</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1264,10 +1264,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>21</v>
@@ -1287,10 +1287,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>22</v>
@@ -1310,10 +1310,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>23</v>
@@ -1333,10 +1333,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>24</v>
@@ -1356,10 +1356,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>25</v>
@@ -1379,10 +1379,10 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>26</v>
@@ -1402,19 +1402,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F30" s="18">
-        <v>129365</v>
+        <v>240000</v>
       </c>
       <c r="G30" s="18">
-        <v>3828128</v>
+        <v>7540320</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1425,19 +1425,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="18">
-        <v>129365</v>
+        <v>183674</v>
       </c>
       <c r="G31" s="18">
-        <v>3828128</v>
+        <v>4591871</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1448,19 +1448,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>129365</v>
+        <v>183674</v>
       </c>
       <c r="G32" s="18">
-        <v>3828128</v>
+        <v>4591871</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1471,19 +1471,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F33" s="18">
-        <v>129365</v>
+        <v>183674</v>
       </c>
       <c r="G33" s="18">
-        <v>3828128</v>
+        <v>4591871</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1494,19 +1494,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F34" s="18">
-        <v>129365</v>
+        <v>183674</v>
       </c>
       <c r="G34" s="18">
-        <v>3828128</v>
+        <v>4591871</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1517,19 +1517,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="18">
-        <v>129365</v>
+        <v>183674</v>
       </c>
       <c r="G35" s="18">
-        <v>3828128</v>
+        <v>4591871</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1540,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F36" s="18">
-        <v>129365</v>
+        <v>183674</v>
       </c>
       <c r="G36" s="18">
-        <v>3828128</v>
+        <v>4591871</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1563,19 +1563,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>36</v>
       </c>
       <c r="F37" s="24">
-        <v>64682</v>
+        <v>110205</v>
       </c>
       <c r="G37" s="24">
-        <v>3828128</v>
+        <v>4591871</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
